--- a/spreadsheets/Heimerdinger.xlsx
+++ b/spreadsheets/Heimerdinger.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2065D9F2-9D53-47E6-A6BE-0A92F14BCE19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA51828-E589-4E88-A2F8-FE4240EEBAA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>Champion</t>
   </si>
@@ -73,45 +73,24 @@
     <t>https://twitter.com/LolGunslinger_</t>
   </si>
   <si>
-    <t>For each champion, please enter a value for difficulty (1 - 10).</t>
-  </si>
-  <si>
     <t>Akali</t>
   </si>
   <si>
     <t>Harder matchup due to how moblie she is once she hits lvl 6 she can basically oneshot you, need to place turrets in front of you and stay back since her invis wont allow you to do any dammage , i personaly build rylais helps negate any oneshot burst, her shadow has a long cooldown, so look to fight her once its down</t>
   </si>
   <si>
-    <t xml:space="preserve">1 should indicate an extremely easy matchup. </t>
-  </si>
-  <si>
     <t>Anivia</t>
   </si>
   <si>
-    <t>10 should indicate an unplayable counter.</t>
-  </si>
-  <si>
     <t>Annie</t>
   </si>
   <si>
-    <t>Feel free to use non integers.</t>
-  </si>
-  <si>
-    <t>For each champion, if you have any comments about the matchup, enter it into the C column.</t>
-  </si>
-  <si>
     <t>Azir</t>
   </si>
   <si>
-    <t>Please aim for comments to be between 1-3 sentences long.</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
-  </si>
-  <si>
     <t>For socials, enter URLs for your desired links.</t>
   </si>
   <si>
@@ -124,12 +103,6 @@
     <t>Cho'Gath</t>
   </si>
   <si>
-    <t>You don't need to fill out EVERY matchup, just as many as you know/would like to.</t>
-  </si>
-  <si>
-    <t>If there is a champion not listed, feel free to add them to the bottom.</t>
-  </si>
-  <si>
     <t>Diana</t>
   </si>
   <si>
@@ -335,13 +308,16 @@
   </si>
   <si>
     <t xml:space="preserve">Very tanky with aftershock have to kite him or you wont be able to burst him, have to build ludens into linadires to stay relevant agaisnt him </t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/IwpOglL.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,14 +335,37 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,18 +385,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,79 +416,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5248275" cy="2409825"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7200900" cy="3390900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,7 +618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -734,96 +668,99 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1813,10 +1750,10 @@
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{62A94273-4CC8-4D2F-B8A4-2E57AB36314E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1824,374 +1761,356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="230.25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="C6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="C15" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="7">
+        <v>6</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="C20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="7">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="7">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7">
+        <v>8</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="7">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="4">
-        <v>6</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="3">
-        <v>9</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="3">
-        <v>8</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3166,6 +3085,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spreadsheets/Heimerdinger.xlsx
+++ b/spreadsheets/Heimerdinger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA51828-E589-4E88-A2F8-FE4240EEBAA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C6834-5D1B-4F05-BC2D-2F93E6F1C2B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33240" yWindow="1560" windowWidth="21525" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1761,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/spreadsheets/Heimerdinger.xlsx
+++ b/spreadsheets/Heimerdinger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9C6834-5D1B-4F05-BC2D-2F93E6F1C2B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CEE64A-2D19-4DB7-B0E3-A784452CC43D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="1560" windowWidth="21525" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="3195" windowWidth="21525" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,6 @@
     <t>description/bio</t>
   </si>
   <si>
-    <t xml:space="preserve">Been playing heimerdinger for 5 years, found heimerdinger right away. I was honored by Riot to be featured on the front page of the client </t>
-  </si>
-  <si>
     <t>extra message</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/IwpOglL.png</t>
+  </si>
+  <si>
+    <t>Been playing heimerdinger for 5 years, found heimerdinger right away. I was honored by Riot to be featured on the front page of the client.</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -724,7 +724,7 @@
         <v>76</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>77</v>
@@ -735,32 +735,32 @@
         <v>78</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1761,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1900,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -1923,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
